--- a/Knights 2025 Scoring .xlsx
+++ b/Knights 2025 Scoring .xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="278">
   <si>
     <t xml:space="preserve">Division </t>
   </si>
@@ -7640,6 +7640,18 @@
       <c r="E6" s="8" t="s">
         <v>74</v>
       </c>
+      <c r="F6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="J6" s="8" t="s">
         <v>58</v>
       </c>
@@ -8116,7 +8128,7 @@
         <v>58</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>59</v>
